--- a/data/trans_dic/AIRE_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>59,02; 70,88</t>
+          <t>59,67; 71,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,97; 71,08</t>
+          <t>60,23; 71,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,03; 69,23</t>
+          <t>61,49; 69,71</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,57; 74,27</t>
+          <t>62,84; 74,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,58; 83,28</t>
+          <t>73,56; 83,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,93; 76,93</t>
+          <t>68,59; 76,68</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,38; 82,89</t>
+          <t>72,21; 82,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,8; 87,49</t>
+          <t>74,19; 87,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,75; 82,74</t>
+          <t>73,76; 83,04</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,68; 81,46</t>
+          <t>72,57; 81,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,53; 92,35</t>
+          <t>72,67; 93,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,89; 89,47</t>
+          <t>74,75; 89,24</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,72; 85,29</t>
+          <t>75,19; 86,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,28; 84,01</t>
+          <t>54,71; 84,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62,17; 83,22</t>
+          <t>65,29; 83,22</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,8; 78,47</t>
+          <t>46,61; 77,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>74,42; 82,25</t>
+          <t>74,35; 82,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,04; 79,4</t>
+          <t>70,49; 80,01</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,78; 76,03</t>
+          <t>71,26; 76,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74,07; 84,96</t>
+          <t>73,96; 85,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73,52; 80,37</t>
+          <t>73,48; 80,19</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>173981</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>140768</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>314749</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>158006; 188863</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>129150; 152273</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>294690; 334075</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>177963</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>145362</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>323325</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>162496; 192658</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>135494; 153727</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>303697; 339523</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>176039</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>66310</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>242349</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>163094; 187254</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60499; 71208</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>226740; 255250</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>411210</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>493495</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>904706</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>385599; 433696</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>433094; 554599</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>842660; 1005995</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>186284</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>294192</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>480476</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>173021; 198250</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>211422; 324968</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>402540; 513093</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>69654</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>325345</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>394998</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>51572; 86120</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>307277; 341931</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>369295; 419193</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1294</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2076</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3370</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1195131</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1465472</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2660603</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1155282; 1232459</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1387335; 1596533</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2569872; 2804330</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/AIRE_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
